--- a/output/1Y_P87_1VAL-D.xlsx
+++ b/output/1Y_P87_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.9709</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>626.1387999999999</v>
       </c>
-      <c r="G2" s="1">
-        <v>626.1387999999999</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.0931</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9709</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0931</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.743</v>
       </c>
+      <c r="E3" s="1">
+        <v>626.1387999999999</v>
+      </c>
       <c r="F3" s="1">
         <v>597.2645</v>
       </c>
-      <c r="G3" s="1">
-        <v>1223.4033</v>
-      </c>
       <c r="H3" s="1">
-        <v>20377.2504</v>
+        <v>10429.0929</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.3478</v>
+        <v>10429.0929</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.9709</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20377.2504</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0215</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.6195</v>
       </c>
+      <c r="E4" s="1">
+        <v>1223.4033</v>
+      </c>
       <c r="F4" s="1">
         <v>567.553</v>
       </c>
-      <c r="G4" s="1">
-        <v>1790.9563</v>
-      </c>
       <c r="H4" s="1">
-        <v>31392.0614</v>
+        <v>21443.9357</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.7508</v>
+        <v>21443.9357</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.3478</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31392.0614</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0334</v>
+        <v>0.0497</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.6646</v>
       </c>
+      <c r="E5" s="1">
+        <v>1790.9563</v>
+      </c>
       <c r="F5" s="1">
         <v>566.104</v>
       </c>
-      <c r="G5" s="1">
-        <v>2357.0603</v>
-      </c>
       <c r="H5" s="1">
-        <v>41420.6202</v>
+        <v>31472.4753</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.9703</v>
+        <v>31472.4753</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.7508</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41420.6202</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0007</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.2588</v>
       </c>
+      <c r="E6" s="1">
+        <v>2357.0603</v>
+      </c>
       <c r="F6" s="1">
         <v>579.4146</v>
       </c>
-      <c r="G6" s="1">
-        <v>2936.4748</v>
-      </c>
       <c r="H6" s="1">
-        <v>50417.2173</v>
+        <v>40469.0749</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0272</v>
+        <v>40469.0749</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.9703</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50417.2173</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0195</v>
+        <v>-0.0242</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.8469</v>
       </c>
+      <c r="E7" s="1">
+        <v>2936.4748</v>
+      </c>
       <c r="F7" s="1">
         <v>593.581</v>
       </c>
-      <c r="G7" s="1">
-        <v>3530.0558</v>
-      </c>
       <c r="H7" s="1">
-        <v>59162.324</v>
+        <v>49214.1436</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.9969</v>
+        <v>49214.1436</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>17.0272</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.47</v>
       </c>
-      <c r="L7" s="1">
-        <v>1242.1289</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-8757.8711</v>
+        <v>997.0365</v>
       </c>
       <c r="O7" s="1">
-        <v>1242.1289</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60404.4528</v>
+        <v>-9002.9635</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0002</v>
+        <v>-0.0249</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.9739</v>
       </c>
+      <c r="E8" s="1">
+        <v>3530.0558</v>
+      </c>
       <c r="F8" s="1">
-        <v>601.3363000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4131.3921</v>
+        <v>598.9297</v>
       </c>
       <c r="H8" s="1">
-        <v>69761.86079999999</v>
+        <v>59607.817</v>
       </c>
       <c r="I8" s="1">
-        <v>70207.0215</v>
+        <v>997.0365</v>
       </c>
       <c r="J8" s="1">
-        <v>16.9936</v>
+        <v>60604.8535</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60166.1727</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.044</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10207.0215</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1035.1074</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70796.9682</v>
+        <v>-10166.1727</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0056</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.6787</v>
       </c>
+      <c r="E9" s="1">
+        <v>4128.9855</v>
+      </c>
       <c r="F9" s="1">
-        <v>577.3627</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4708.7548</v>
+        <v>575.0521</v>
       </c>
       <c r="H9" s="1">
-        <v>82812.8702</v>
+        <v>72616.4687</v>
       </c>
       <c r="I9" s="1">
-        <v>80414.04300000001</v>
+        <v>830.8637</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0776</v>
+        <v>73447.3325</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70332.3455</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.0338</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10207.0215</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>828.0859</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>83640.9561</v>
+        <v>-10166.1727</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0352</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.7792</v>
       </c>
+      <c r="E10" s="1">
+        <v>4704.0376</v>
+      </c>
       <c r="F10" s="1">
-        <v>574.099</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5282.8538</v>
+        <v>571.8015</v>
       </c>
       <c r="H10" s="1">
-        <v>93437.83530000001</v>
+        <v>83200.31299999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90621.0644</v>
+        <v>664.691</v>
       </c>
       <c r="J10" s="1">
-        <v>17.1538</v>
+        <v>83865.004</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80498.51820000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.1126</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10207.0215</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>621.0644</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>94058.89969999999</v>
+        <v>-10166.1727</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0045</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>18.0055</v>
       </c>
+      <c r="E11" s="1">
+        <v>5275.8391</v>
+      </c>
       <c r="F11" s="1">
-        <v>566.8835</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5849.7373</v>
+        <v>564.6149</v>
       </c>
       <c r="H11" s="1">
-        <v>104781.6652</v>
+        <v>94501.8846</v>
       </c>
       <c r="I11" s="1">
-        <v>100828.0859</v>
+        <v>498.5182</v>
       </c>
       <c r="J11" s="1">
-        <v>17.2363</v>
+        <v>95000.4028</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90664.69100000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1849</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10207.0215</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>414.043</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>105195.7081</v>
+        <v>-10166.1727</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0109</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>18.1364</v>
       </c>
+      <c r="E12" s="1">
+        <v>5840.4539</v>
+      </c>
       <c r="F12" s="1">
-        <v>562.792</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6412.5294</v>
+        <v>560.5397</v>
       </c>
       <c r="H12" s="1">
-        <v>115696.7788</v>
+        <v>105375.2218</v>
       </c>
       <c r="I12" s="1">
-        <v>111035.1074</v>
+        <v>332.3455</v>
       </c>
       <c r="J12" s="1">
-        <v>17.3153</v>
+        <v>105707.5673</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100830.8637</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.2642</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10207.0215</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>207.0215</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115903.8002</v>
+        <v>-10166.1727</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0061</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>18.2605</v>
       </c>
+      <c r="E13" s="1">
+        <v>6400.9937</v>
+      </c>
       <c r="F13" s="1">
-        <v>558.9673</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6971.4966</v>
+        <v>556.7303000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>126642.8134</v>
+        <v>116279.1705</v>
       </c>
       <c r="I13" s="1">
-        <v>121242.1289</v>
+        <v>166.1727</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3911</v>
+        <v>116445.3432</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110997.0365</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.3406</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10207.0215</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126642.8134</v>
+        <v>-10166.1727</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0059</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>18.0221</v>
       </c>
+      <c r="E14" s="1">
+        <v>6957.7239</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6971.4966</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6400.9937</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124742.2488</v>
       </c>
       <c r="I14" s="1">
-        <v>121242.1289</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3911</v>
+        <v>124742.2488</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110997.0365</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.9531</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>124989.1744</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>124989.1744</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124989.1744</v>
+        <v>114760.8548</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0853</v>
+        <v>-0.0135</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.9709</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>626.1387999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0931</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9709</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0931</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.743</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>626.1387999999999</v>
       </c>
       <c r="F3" s="1">
         <v>574.6153</v>
       </c>
       <c r="G3" s="1">
-        <v>1200.7541</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10429.0929</v>
       </c>
       <c r="I3" s="1">
-        <v>19620.7837</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.3404</v>
+        <v>10429.0929</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9620.7837</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.3653</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9620.7837</v>
       </c>
-      <c r="O3" s="1">
-        <v>379.2163</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20379.2163</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0216</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.6195</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1200.7541</v>
       </c>
       <c r="F4" s="1">
         <v>510.7834</v>
       </c>
       <c r="G4" s="1">
-        <v>1711.5375</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>21046.9375</v>
       </c>
       <c r="I4" s="1">
-        <v>28620.5318</v>
+        <v>379.2163</v>
       </c>
       <c r="J4" s="1">
-        <v>16.7221</v>
+        <v>21426.1538</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18620.5318</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.5074</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8999.748100000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1379.4682</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31379.4682</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0329</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.6646</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1711.5375</v>
       </c>
       <c r="F5" s="1">
         <v>564.6817</v>
       </c>
       <c r="G5" s="1">
-        <v>2276.2192</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30076.848</v>
       </c>
       <c r="I5" s="1">
-        <v>38595.4086</v>
+        <v>1379.4682</v>
       </c>
       <c r="J5" s="1">
-        <v>16.9559</v>
+        <v>31456.3162</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28595.4086</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.7074</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9974.8768</v>
       </c>
-      <c r="O5" s="1">
-        <v>1404.5914</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41404.5914</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.2588</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2276.2192</v>
       </c>
       <c r="F6" s="1">
         <v>635.9554000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2912.1746</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>39081.0903</v>
       </c>
       <c r="I6" s="1">
-        <v>49571.2363</v>
+        <v>1404.5914</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0221</v>
+        <v>40485.6817</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39571.2363</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.3846</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10975.8277</v>
       </c>
-      <c r="O6" s="1">
-        <v>428.7637</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50428.7637</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.019</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.8469</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2912.1746</v>
       </c>
       <c r="F7" s="1">
         <v>619.0316</v>
       </c>
       <c r="G7" s="1">
-        <v>3531.2062</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>59181.6043</v>
+        <v>48806.8821</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>428.7637</v>
       </c>
       <c r="J7" s="1">
-        <v>16.9914</v>
+        <v>49235.6457</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>17.1693</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.47</v>
       </c>
-      <c r="L7" s="1">
-        <v>1231.8499</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-9196.9138</v>
+        <v>962.8407</v>
       </c>
       <c r="O7" s="1">
-        <v>1231.8499</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60413.4541</v>
+        <v>-9465.9229</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0003</v>
+        <v>-0.0248</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.9739</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3531.2062</v>
       </c>
       <c r="F8" s="1">
         <v>614.2888</v>
       </c>
       <c r="G8" s="1">
-        <v>4145.495</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>59627.2425</v>
       </c>
       <c r="I8" s="1">
-        <v>70426.87639999999</v>
+        <v>962.8407</v>
       </c>
       <c r="J8" s="1">
-        <v>16.9888</v>
+        <v>60590.0832</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60426.8764</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.1122</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10426.8764</v>
       </c>
-      <c r="O8" s="1">
-        <v>804.9734999999999</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70804.97349999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0056</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.6787</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4145.495</v>
       </c>
       <c r="F9" s="1">
         <v>403.3194</v>
       </c>
       <c r="G9" s="1">
-        <v>4548.8145</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>72906.8211</v>
       </c>
       <c r="I9" s="1">
-        <v>77557.0396</v>
+        <v>535.9644</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0499</v>
+        <v>73442.7855</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67557.0396</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.2965</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7130.1633</v>
       </c>
-      <c r="O9" s="1">
-        <v>3674.8102</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83674.81020000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0355</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.7792</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4548.8145</v>
       </c>
       <c r="F10" s="1">
         <v>539.6686</v>
       </c>
       <c r="G10" s="1">
-        <v>5088.4831</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>80454.8814</v>
       </c>
       <c r="I10" s="1">
-        <v>87151.91559999999</v>
+        <v>3405.8011</v>
       </c>
       <c r="J10" s="1">
-        <v>17.1273</v>
+        <v>83860.6825</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77151.91559999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.9609</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9594.876</v>
       </c>
-      <c r="O10" s="1">
-        <v>4079.9342</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94079.9342</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0043</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>18.0055</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5088.4831</v>
       </c>
       <c r="F11" s="1">
         <v>494.3041</v>
       </c>
       <c r="G11" s="1">
-        <v>5582.7872</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>91145.9264</v>
       </c>
       <c r="I11" s="1">
-        <v>96052.1078</v>
+        <v>3810.9251</v>
       </c>
       <c r="J11" s="1">
-        <v>17.205</v>
+        <v>94956.8515</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86052.1078</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.9112</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8900.1922</v>
       </c>
-      <c r="O11" s="1">
-        <v>5179.7421</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105179.7421</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0106</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>18.1364</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5582.7872</v>
       </c>
       <c r="F12" s="1">
         <v>513.9965</v>
       </c>
       <c r="G12" s="1">
-        <v>6096.7837</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>100726.3206</v>
       </c>
       <c r="I12" s="1">
-        <v>105374.1543</v>
+        <v>4910.7329</v>
       </c>
       <c r="J12" s="1">
-        <v>17.2836</v>
+        <v>105637.0535</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95374.15429999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.0836</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9322.0465</v>
       </c>
-      <c r="O12" s="1">
-        <v>5857.6956</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115857.6956</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0059</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>18.2605</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6096.7837</v>
       </c>
       <c r="F13" s="1">
         <v>509.0361</v>
       </c>
       <c r="G13" s="1">
-        <v>6605.8197</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>110752.9528</v>
       </c>
       <c r="I13" s="1">
-        <v>114669.4072</v>
+        <v>5588.6864</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3588</v>
+        <v>116341.6392</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104669.4072</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.168</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9295.252899999999</v>
       </c>
-      <c r="O13" s="1">
-        <v>6562.4427</v>
-      </c>
-      <c r="P13" s="1">
-        <v>126562.4427</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0056</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>18.0221</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6605.8197</v>
       </c>
       <c r="F14" s="1">
         <v>-6605.8197</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118433.0996</v>
       </c>
       <c r="I14" s="1">
-        <v>114669.4072</v>
+        <v>6293.4335</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3588</v>
+        <v>124726.5331</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104669.4072</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.845</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>118433.0996</v>
       </c>
-      <c r="O14" s="1">
-        <v>124995.5422</v>
-      </c>
-      <c r="P14" s="1">
-        <v>124995.5422</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0847</v>
+        <v>-0.0128</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.9709</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>626.1387999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0931</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9709</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0931</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.743</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>626.1387999999999</v>
       </c>
       <c r="F3" s="1">
         <v>577.6172</v>
       </c>
       <c r="G3" s="1">
-        <v>1203.756</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10429.0929</v>
       </c>
       <c r="I3" s="1">
-        <v>19671.0443</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.3414</v>
+        <v>10429.0929</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9671.0443</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.4455</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9671.0443</v>
       </c>
-      <c r="O3" s="1">
-        <v>328.9557</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20378.9557</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0216</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.6195</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1203.756</v>
       </c>
       <c r="F4" s="1">
         <v>516.3535000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1720.1094</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21099.5548</v>
       </c>
       <c r="I4" s="1">
-        <v>28768.9341</v>
+        <v>328.9557</v>
       </c>
       <c r="J4" s="1">
-        <v>16.7251</v>
+        <v>21428.5106</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18768.9341</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.592</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9097.8899</v>
       </c>
-      <c r="O4" s="1">
-        <v>1231.0659</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31381.3159</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.033</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.6646</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1720.1094</v>
       </c>
       <c r="F5" s="1">
         <v>573.2384</v>
       </c>
       <c r="G5" s="1">
-        <v>2293.3478</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30227.4829</v>
       </c>
       <c r="I5" s="1">
-        <v>38894.9611</v>
+        <v>1231.0659</v>
       </c>
       <c r="J5" s="1">
-        <v>16.9599</v>
+        <v>31458.5488</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28894.9611</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.7983</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10126.027</v>
       </c>
-      <c r="O5" s="1">
-        <v>1105.0389</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41406.0401</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.2588</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2293.3478</v>
       </c>
       <c r="F6" s="1">
         <v>643.4421</v>
       </c>
       <c r="G6" s="1">
-        <v>2936.7899</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50422.6275</v>
+        <v>39375.1767</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>1105.0389</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0254</v>
+        <v>40480.2156</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.4418</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11105.0389</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50422.6275</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0191</v>
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.8469</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2936.7899</v>
       </c>
       <c r="F7" s="1">
         <v>593.581</v>
       </c>
       <c r="G7" s="1">
-        <v>3530.371</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>59167.6051</v>
+        <v>49219.4247</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.9954</v>
+        <v>49219.4247</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>17.0254</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.47</v>
       </c>
-      <c r="L7" s="1">
-        <v>1242.2621</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-8757.7379</v>
+        <v>970.0861</v>
       </c>
       <c r="O7" s="1">
-        <v>1242.2621</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60409.8672</v>
+        <v>-9029.9139</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0002</v>
+        <v>-0.025</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.9739</v>
       </c>
       <c r="E8" s="1">
+        <v>3530.371</v>
+      </c>
+      <c r="F8" s="1">
+        <v>646.2914</v>
+      </c>
+      <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
-      <c r="F8" s="1">
-        <v>662.3264</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4192.6974</v>
-      </c>
       <c r="H8" s="1">
-        <v>70797.0491</v>
+        <v>59613.1379</v>
       </c>
       <c r="I8" s="1">
-        <v>71242.26210000001</v>
+        <v>970.0861</v>
       </c>
       <c r="J8" s="1">
-        <v>16.992</v>
+        <v>60583.224</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60970.0861</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2702</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11242.2621</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70797.0491</v>
+        <v>-10970.0861</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0055</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.6787</v>
       </c>
       <c r="E9" s="1">
+        <v>4176.6624</v>
+      </c>
+      <c r="F9" s="1">
+        <v>452.5574</v>
+      </c>
+      <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
-      <c r="F9" s="1">
-        <v>436.5224</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4629.2198</v>
-      </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>73454.9614</v>
       </c>
       <c r="I9" s="1">
-        <v>78959.4106</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0567</v>
+        <v>73454.9614</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68970.7121</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.5134</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-7717.1485</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2282.8515</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>83696.9394</v>
+        <v>-8000.6259</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0359</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.7792</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4629.2198</v>
       </c>
       <c r="F10" s="1">
         <v>562.2292</v>
       </c>
       <c r="G10" s="1">
-        <v>5191.449</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>81877.0098</v>
       </c>
       <c r="I10" s="1">
-        <v>88955.39659999999</v>
+        <v>1999.3741</v>
       </c>
       <c r="J10" s="1">
-        <v>17.135</v>
+        <v>83876.3839</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78966.69809999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0583</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9995.986000000001</v>
       </c>
-      <c r="O10" s="1">
-        <v>2286.8655</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94108.0238</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0044</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>18.0055</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5191.449</v>
       </c>
       <c r="F11" s="1">
         <v>518.6405</v>
       </c>
       <c r="G11" s="1">
-        <v>5710.0894</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>92990.2726</v>
       </c>
       <c r="I11" s="1">
-        <v>98293.7773</v>
+        <v>2003.3881</v>
       </c>
       <c r="J11" s="1">
-        <v>17.2141</v>
+        <v>94993.66069999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88305.0787</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.0097</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9338.3806</v>
       </c>
-      <c r="O11" s="1">
-        <v>2948.4849</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105228.749</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0108</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>18.1364</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5710.0894</v>
       </c>
       <c r="F12" s="1">
         <v>541.4231</v>
       </c>
       <c r="G12" s="1">
-        <v>6251.5126</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>103023.1467</v>
       </c>
       <c r="I12" s="1">
-        <v>108113.2439</v>
+        <v>2665.0074</v>
       </c>
       <c r="J12" s="1">
-        <v>17.2939</v>
+        <v>105688.1541</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98124.5453</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.1844</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9819.4666</v>
       </c>
-      <c r="O12" s="1">
-        <v>3129.0183</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115920.6837</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.006</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>18.2605</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6251.5126</v>
       </c>
       <c r="F13" s="1">
         <v>539.0291999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>6790.5418</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>113563.7272</v>
       </c>
       <c r="I13" s="1">
-        <v>117956.1864</v>
+        <v>2845.5408</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3707</v>
+        <v>116409.268</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>107967.4879</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.2706</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9842.9426</v>
       </c>
-      <c r="O13" s="1">
-        <v>3286.0757</v>
-      </c>
-      <c r="P13" s="1">
-        <v>126641.6994</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0057</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>18.0221</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6790.5418</v>
       </c>
       <c r="F14" s="1">
         <v>-6790.5418</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121744.9072</v>
       </c>
       <c r="I14" s="1">
-        <v>117956.1864</v>
+        <v>3002.5982</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3707</v>
+        <v>124747.5055</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>107967.4879</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.8997</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>121744.9072</v>
       </c>
-      <c r="O14" s="1">
-        <v>125030.9829</v>
-      </c>
-      <c r="P14" s="1">
-        <v>125030.9829</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.08500000000000001</v>
+        <v>-0.0131</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.9709</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>626.1387999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0931</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9709</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0931</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.743</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>626.1387999999999</v>
       </c>
       <c r="F3" s="1">
         <v>580.6191</v>
       </c>
       <c r="G3" s="1">
-        <v>1206.7578</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10429.0929</v>
       </c>
       <c r="I3" s="1">
-        <v>19721.3048</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.3424</v>
+        <v>10429.0929</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9721.3048</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.5258</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9721.3048</v>
       </c>
-      <c r="O3" s="1">
-        <v>278.6952</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20378.6952</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0216</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.6195</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1206.7578</v>
       </c>
       <c r="F4" s="1">
         <v>521.9521</v>
       </c>
       <c r="G4" s="1">
-        <v>1728.7099</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>21152.1722</v>
       </c>
       <c r="I4" s="1">
-        <v>28917.8391</v>
+        <v>278.6952</v>
       </c>
       <c r="J4" s="1">
-        <v>16.728</v>
+        <v>21430.8673</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18917.8391</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.6766</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9196.534299999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>1082.1609</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31383.1609</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0331</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.6646</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1728.7099</v>
       </c>
       <c r="F5" s="1">
         <v>581.8808</v>
       </c>
       <c r="G5" s="1">
-        <v>2310.5907</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30378.6191</v>
       </c>
       <c r="I5" s="1">
-        <v>39196.5303</v>
+        <v>1082.1609</v>
       </c>
       <c r="J5" s="1">
-        <v>16.9639</v>
+        <v>31460.78</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29196.5303</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.8892</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10278.6912</v>
       </c>
-      <c r="O5" s="1">
-        <v>803.4697</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41407.4797</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.2588</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2310.5907</v>
       </c>
       <c r="F6" s="1">
         <v>625.9688</v>
       </c>
       <c r="G6" s="1">
-        <v>2936.5594</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50418.6701</v>
+        <v>39671.2245</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>803.4697</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0267</v>
+        <v>40474.6943</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.3116</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10803.4697</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50418.6701</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0192</v>
+        <v>-0.0238</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.8469</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2936.5594</v>
       </c>
       <c r="F7" s="1">
         <v>593.581</v>
       </c>
       <c r="G7" s="1">
-        <v>3530.1405</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>59163.742</v>
+        <v>49215.5617</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.9965</v>
+        <v>49215.5617</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>17.0267</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.47</v>
       </c>
-      <c r="L7" s="1">
-        <v>1242.1646</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-8757.8354</v>
+        <v>977.3799</v>
       </c>
       <c r="O7" s="1">
-        <v>1242.1646</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60405.9067</v>
+        <v>-9022.6201</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0002</v>
+        <v>-0.0249</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.9739</v>
       </c>
       <c r="E8" s="1">
+        <v>3530.1405</v>
+      </c>
+      <c r="F8" s="1">
+        <v>646.7211</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>662.3207</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4192.4611</v>
-      </c>
       <c r="H8" s="1">
-        <v>70793.06</v>
+        <v>59609.2458</v>
       </c>
       <c r="I8" s="1">
-        <v>71242.1646</v>
+        <v>977.3799</v>
       </c>
       <c r="J8" s="1">
-        <v>16.9929</v>
+        <v>60586.6256</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60977.3799</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2734</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11242.1646</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70793.06</v>
+        <v>-10977.3799</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0055</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.6787</v>
       </c>
       <c r="E9" s="1">
+        <v>4176.8616</v>
+      </c>
+      <c r="F9" s="1">
+        <v>534.3857</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>518.7861</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4711.2473</v>
-      </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>73458.4648</v>
       </c>
       <c r="I9" s="1">
-        <v>80413.6293</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0684</v>
+        <v>73458.4648</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70424.6238</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.8607</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-9171.464599999999</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>828.5354</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>83685.24099999999</v>
+        <v>-9447.244000000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0358</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.7792</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4711.2473</v>
       </c>
       <c r="F10" s="1">
         <v>585.5963</v>
       </c>
       <c r="G10" s="1">
-        <v>5296.8436</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>83327.83040000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90825.06359999999</v>
+        <v>552.756</v>
       </c>
       <c r="J10" s="1">
-        <v>17.147</v>
+        <v>83880.5864</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80836.05809999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.1581</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10411.4343</v>
       </c>
-      <c r="O10" s="1">
-        <v>417.1011</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94102.3737</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0045</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>18.0055</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5296.8436</v>
       </c>
       <c r="F11" s="1">
         <v>543.987</v>
       </c>
       <c r="G11" s="1">
-        <v>5840.8306</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>94878.1219</v>
       </c>
       <c r="I11" s="1">
-        <v>100619.8211</v>
+        <v>141.3217</v>
       </c>
       <c r="J11" s="1">
-        <v>17.227</v>
+        <v>95019.4436</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90630.81570000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1103</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9794.7575</v>
       </c>
-      <c r="O11" s="1">
-        <v>622.3434999999999</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105244.4689</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.011</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>18.1364</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5840.8306</v>
       </c>
       <c r="F12" s="1">
         <v>570.1229</v>
       </c>
       <c r="G12" s="1">
-        <v>6410.9535</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>105382.0175</v>
       </c>
       <c r="I12" s="1">
-        <v>110959.7989</v>
+        <v>346.5642</v>
       </c>
       <c r="J12" s="1">
-        <v>17.3078</v>
+        <v>105728.5817</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100970.7934</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.2871</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10339.9778</v>
       </c>
-      <c r="O12" s="1">
-        <v>282.3658</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115950.7124</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0061</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>18.2605</v>
       </c>
       <c r="E13" s="1">
+        <v>6410.9535</v>
+      </c>
+      <c r="F13" s="1">
+        <v>547.9908</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>563.0933</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6974.0468</v>
-      </c>
       <c r="H13" s="1">
-        <v>126689.1402</v>
+        <v>116460.0994</v>
       </c>
       <c r="I13" s="1">
-        <v>121242.1646</v>
+        <v>6.5864</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3848</v>
+        <v>116466.6859</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110977.3799</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.3106</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10282.3658</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126689.1402</v>
+        <v>-10006.5864</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0059</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>18.0221</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6958.9443</v>
       </c>
       <c r="F14" s="1">
-        <v>-6974.0468</v>
+        <v>-6958.9443</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124764.1295</v>
       </c>
       <c r="I14" s="1">
-        <v>121242.1646</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3848</v>
+        <v>124764.1295</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110977.3799</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.9474</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125034.8963</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125034.8963</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125034.8963</v>
+        <v>124764.1295</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0853</v>
+        <v>-0.0135</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.9709</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>626.1387999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0931</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9709</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0931</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.743</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>626.1387999999999</v>
       </c>
       <c r="F3" s="1">
         <v>583.6209</v>
       </c>
       <c r="G3" s="1">
-        <v>1209.7597</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10429.0929</v>
       </c>
       <c r="I3" s="1">
-        <v>19771.5654</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.3434</v>
+        <v>10429.0929</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9771.565399999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.6061</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9771.565399999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>228.4346</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20378.4346</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0216</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.6195</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1209.7597</v>
       </c>
       <c r="F4" s="1">
         <v>527.5792</v>
       </c>
       <c r="G4" s="1">
-        <v>1737.3389</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21204.7895</v>
       </c>
       <c r="I4" s="1">
-        <v>29067.2466</v>
+        <v>228.4346</v>
       </c>
       <c r="J4" s="1">
-        <v>16.7309</v>
+        <v>21433.2241</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19067.2466</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.7612</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9295.681200000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>932.7534000000001</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31385.0034</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0331</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.6646</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1737.3389</v>
       </c>
       <c r="F5" s="1">
         <v>590.6093</v>
       </c>
       <c r="G5" s="1">
-        <v>2327.9482</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>30530.2565</v>
       </c>
       <c r="I5" s="1">
-        <v>39500.1237</v>
+        <v>932.7534000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>16.9678</v>
+        <v>31463.0099</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29500.1237</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.9801</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10432.877</v>
       </c>
-      <c r="O5" s="1">
-        <v>499.8763</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41408.9101</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.2588</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2327.9482</v>
       </c>
       <c r="F6" s="1">
         <v>608.3781</v>
       </c>
       <c r="G6" s="1">
-        <v>2936.3263</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50414.6676</v>
+        <v>39969.2411</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>499.8763</v>
       </c>
       <c r="J6" s="1">
-        <v>17.0281</v>
+        <v>40469.1174</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.1825</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10499.8763</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50414.6676</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0193</v>
+        <v>-0.024</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.8469</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2936.3263</v>
       </c>
       <c r="F7" s="1">
         <v>593.581</v>
       </c>
       <c r="G7" s="1">
-        <v>3529.9073</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>59159.835</v>
+        <v>49211.6547</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.9976</v>
+        <v>49211.6547</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>17.0281</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.47</v>
       </c>
-      <c r="L7" s="1">
-        <v>1242.066</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-8757.933999999999</v>
+        <v>984.7221</v>
       </c>
       <c r="O7" s="1">
-        <v>1242.066</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60401.9011</v>
+        <v>-9015.277899999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0002</v>
+        <v>-0.0249</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.9739</v>
       </c>
       <c r="E8" s="1">
+        <v>3529.9073</v>
+      </c>
+      <c r="F8" s="1">
+        <v>647.1537</v>
+      </c>
+      <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>662.3149</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4192.2222</v>
-      </c>
       <c r="H8" s="1">
-        <v>70789.0254</v>
+        <v>59605.3093</v>
       </c>
       <c r="I8" s="1">
-        <v>71242.06600000001</v>
+        <v>984.7221</v>
       </c>
       <c r="J8" s="1">
-        <v>16.9939</v>
+        <v>60590.0314</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60984.7221</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2766</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11242.066</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70789.0254</v>
+        <v>-10984.7221</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0055</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.6787</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4177.061</v>
       </c>
       <c r="F9" s="1">
         <v>565.6525</v>
       </c>
       <c r="G9" s="1">
-        <v>4757.8746</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>83676.74129999999</v>
+        <v>73461.9724</v>
       </c>
       <c r="I9" s="1">
-        <v>81242.06600000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0753</v>
+        <v>73461.9724</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70984.7221</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.9939</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83676.74129999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0357</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.7792</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4742.7135</v>
       </c>
       <c r="F10" s="1">
         <v>562.455</v>
       </c>
       <c r="G10" s="1">
-        <v>5320.3296</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>94100.6704</v>
+        <v>83884.3734</v>
       </c>
       <c r="I10" s="1">
-        <v>91242.06600000001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.1497</v>
+        <v>83884.3734</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80984.7221</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0756</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94100.6704</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0045</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>18.0055</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5305.1685</v>
       </c>
       <c r="F11" s="1">
         <v>555.3859</v>
       </c>
       <c r="G11" s="1">
-        <v>5875.7155</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>105246.9912</v>
+        <v>95027.239</v>
       </c>
       <c r="I11" s="1">
-        <v>101242.066</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.2306</v>
+        <v>95027.239</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90984.7221</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1502</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105246.9912</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.011</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>18.1364</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5860.5543</v>
       </c>
       <c r="F12" s="1">
         <v>551.3773</v>
       </c>
       <c r="G12" s="1">
-        <v>6427.0928</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>115959.5371</v>
+        <v>105737.8796</v>
       </c>
       <c r="I12" s="1">
-        <v>111242.066</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.3083</v>
+        <v>105737.8796</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100984.7221</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.2313</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115959.5371</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0062</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>18.2605</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6411.9317</v>
       </c>
       <c r="F13" s="1">
         <v>547.6301</v>
       </c>
       <c r="G13" s="1">
-        <v>6974.723</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>126701.4225</v>
+        <v>116477.8686</v>
       </c>
       <c r="I13" s="1">
-        <v>121242.066</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3831</v>
+        <v>116477.8686</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110984.7221</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.3091</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>126701.4225</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0059</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>18.0221</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6959.5618</v>
       </c>
       <c r="F14" s="1">
-        <v>-6974.723</v>
+        <v>-6959.5618</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124775.1999</v>
       </c>
       <c r="I14" s="1">
-        <v>121242.066</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3831</v>
+        <v>124775.1999</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110984.7221</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.9471</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125047.0182</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125047.0182</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125047.0182</v>
+        <v>124775.1999</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0853</v>
+        <v>-0.0135</v>
       </c>
     </row>
   </sheetData>
@@ -4477,10 +4450,10 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.9735</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.3911</v>
+        <v>15.9531</v>
       </c>
       <c r="D3" s="1">
-        <v>17.3588</v>
+        <v>15.845</v>
       </c>
       <c r="E3" s="1">
-        <v>17.3707</v>
+        <v>15.8997</v>
       </c>
       <c r="F3" s="1">
-        <v>17.3848</v>
+        <v>15.9474</v>
       </c>
       <c r="G3" s="1">
-        <v>17.3831</v>
+        <v>15.9471</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1249</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0188</v>
+        <v>0.1249</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0187</v>
+        <v>0.1243</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0192</v>
+        <v>0.1246</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0192</v>
+        <v>0.1249</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0193</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.0844</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1034</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1027</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1031</v>
+        <v>0.082</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1034</v>
+        <v>0.0823</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1034</v>
+        <v>0.0824</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.2394</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.0149</v>
+        <v>1.2662</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.0162</v>
+        <v>1.2737</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.0114</v>
+        <v>1.2708</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.0105</v>
+        <v>1.2708</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.009599999999999999</v>
+        <v>1.2706</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0781</v>
+        <v>-0.0799</v>
       </c>
       <c r="D7" s="3">
-        <v>0.081</v>
+        <v>0.0764</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0801</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0789</v>
+        <v>0.0745</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0789</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1242.1289</v>
+        <v>997.0365</v>
       </c>
       <c r="D8" s="1">
-        <v>1231.8499</v>
+        <v>962.8407</v>
       </c>
       <c r="E8" s="1">
-        <v>1242.2621</v>
+        <v>970.0861</v>
       </c>
       <c r="F8" s="1">
-        <v>1242.1646</v>
+        <v>977.3799</v>
       </c>
       <c r="G8" s="1">
-        <v>1242.066</v>
+        <v>984.7221</v>
       </c>
     </row>
   </sheetData>
